--- a/LaTeX/Experiment/Results/DifferentCatalysts.xlsx
+++ b/LaTeX/Experiment/Results/DifferentCatalysts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Copper" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>Time(s)</t>
   </si>
   <si>
     <t>Volume of Hydrogen Produced (ml)</t>
+  </si>
+  <si>
+    <t>Gradient</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nickel </t>
+  </si>
+  <si>
+    <t>Manganese</t>
   </si>
 </sst>
 </file>
@@ -93,11 +108,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,6 +186,20 @@
           <c:tx>
             <c:v>Repeat 1</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225"/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'[1]0.01 CS'!$G$5:$G$15</c:f>
@@ -214,7 +244,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]0.01 CS'!$L$5:$L$15</c:f>
+              <c:f>Copper!$C$4:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -222,34 +252,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.25</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.5</c:v>
+                  <c:v>23.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.5</c:v>
+                  <c:v>29.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.25</c:v>
+                  <c:v>35.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.5</c:v>
+                  <c:v>40.833333333333336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.25</c:v>
+                  <c:v>49.833333333333336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.25</c:v>
+                  <c:v>53.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.5</c:v>
+                  <c:v>57.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.75</c:v>
+                  <c:v>60.666666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -266,11 +296,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98136832"/>
-        <c:axId val="98138752"/>
+        <c:axId val="101480704"/>
+        <c:axId val="101499264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98136832"/>
+        <c:axId val="101480704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -301,7 +331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98138752"/>
+        <c:crossAx val="101499264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -309,7 +339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98138752"/>
+        <c:axId val="101499264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -341,7 +371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98136832"/>
+        <c:crossAx val="101480704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -355,6 +385,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -416,6 +447,20 @@
           <c:tx>
             <c:v>Repeat 1</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225"/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Nickel!$B$4:$B$14</c:f>
@@ -512,11 +557,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94712192"/>
-        <c:axId val="94714112"/>
+        <c:axId val="101894016"/>
+        <c:axId val="101900288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94712192"/>
+        <c:axId val="101894016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -547,7 +592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94714112"/>
+        <c:crossAx val="101900288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -555,7 +600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94714112"/>
+        <c:axId val="101900288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -587,7 +632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94712192"/>
+        <c:crossAx val="101894016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -662,6 +707,20 @@
           <c:tx>
             <c:v>Repeat 1</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225"/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Nickel!$B$4:$B$14</c:f>
@@ -758,11 +817,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94759552"/>
-        <c:axId val="94581504"/>
+        <c:axId val="139048448"/>
+        <c:axId val="139050368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94759552"/>
+        <c:axId val="139048448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -793,7 +852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94581504"/>
+        <c:crossAx val="139050368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -801,7 +860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94581504"/>
+        <c:axId val="139050368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -833,7 +892,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94759552"/>
+        <c:crossAx val="139048448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -908,6 +967,20 @@
           <c:tx>
             <c:v>Repeat 1</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225"/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Nickel!$B$4:$B$14</c:f>
@@ -1004,11 +1077,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94766208"/>
-        <c:axId val="94768128"/>
+        <c:axId val="139129984"/>
+        <c:axId val="139131904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94766208"/>
+        <c:axId val="139129984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1039,7 +1112,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94768128"/>
+        <c:crossAx val="139131904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1047,7 +1120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94768128"/>
+        <c:axId val="139131904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1079,9 +1152,256 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94766208"/>
+        <c:crossAx val="139129984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Comparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of Catalysts Effectiveness to Catalyse the Zinc and Sulfuric Acid Reaction</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>ALL!$C$4:$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Copper</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nickel </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manganese</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iron</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ALL!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="58716928"/>
+        <c:axId val="58718464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="58716928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Metal of the Sulfate Salt</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58718464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58718464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Rate of Reaction (mol dm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="30000"/>
+                  <a:t>-3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t> s</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="30000"/>
+                  <a:t>-1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58716928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1101,15 +1421,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>55228</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>60727</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57666</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1134,6 +1454,51 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.07083</cdr:x>
+      <cdr:y>0.16344</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.41705</cdr:x>
+      <cdr:y>0.88132</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Connector 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="593725" y="809625"/>
+          <a:ext cx="2901950" cy="3556004"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1167,10 +1532,55 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5581650" y="1400175"/>
+          <a:ext cx="5848350" cy="2495552"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1204,10 +1614,55 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5667375" y="1447800"/>
+          <a:ext cx="5553075" cy="2495552"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1228,6 +1683,86 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5591175" y="1285875"/>
+          <a:ext cx="5238750" cy="2476501"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>179388</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1262,88 +1797,55 @@
           <cell r="G5">
             <v>0</v>
           </cell>
-          <cell r="L5">
-            <v>0</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="G6">
             <v>10</v>
-          </cell>
-          <cell r="L6">
-            <v>7.25</v>
           </cell>
         </row>
         <row r="7">
           <cell r="G7">
             <v>20</v>
           </cell>
-          <cell r="L7">
-            <v>13.5</v>
-          </cell>
         </row>
         <row r="8">
           <cell r="G8">
             <v>30</v>
-          </cell>
-          <cell r="L8">
-            <v>16.5</v>
           </cell>
         </row>
         <row r="9">
           <cell r="G9">
             <v>40</v>
           </cell>
-          <cell r="L9">
-            <v>19.25</v>
-          </cell>
         </row>
         <row r="10">
           <cell r="G10">
             <v>50</v>
-          </cell>
-          <cell r="L10">
-            <v>21.5</v>
           </cell>
         </row>
         <row r="11">
           <cell r="G11">
             <v>60</v>
           </cell>
-          <cell r="L11">
-            <v>23</v>
-          </cell>
         </row>
         <row r="12">
           <cell r="G12">
             <v>70</v>
-          </cell>
-          <cell r="L12">
-            <v>24.25</v>
           </cell>
         </row>
         <row r="13">
           <cell r="G13">
             <v>80</v>
           </cell>
-          <cell r="L13">
-            <v>25.25</v>
-          </cell>
         </row>
         <row r="14">
           <cell r="G14">
             <v>90</v>
           </cell>
-          <cell r="L14">
-            <v>26.5</v>
-          </cell>
         </row>
         <row r="15">
           <cell r="G15">
             <v>100</v>
-          </cell>
-          <cell r="L15">
-            <v>27.75</v>
           </cell>
         </row>
       </sheetData>
@@ -1645,10 +2147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C15"/>
+  <dimension ref="B2:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,69 +2172,100 @@
       <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>10</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>20</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="4">
+        <v>23.666666666666668</v>
+      </c>
     </row>
     <row r="7" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>30</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="4">
+        <v>29.666666666666668</v>
+      </c>
     </row>
     <row r="8" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>40</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="4">
+        <v>35.5</v>
+      </c>
     </row>
     <row r="9" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>50</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="4">
+        <v>40.833333333333336</v>
+      </c>
     </row>
     <row r="10" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>60</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="4">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>70</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="4">
+        <v>49.833333333333336</v>
+      </c>
     </row>
     <row r="12" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>80</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="4">
+        <v>53.666666666666664</v>
+      </c>
     </row>
     <row r="13" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>90</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="4">
+        <v>57.333333333333336</v>
+      </c>
     </row>
     <row r="14" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>100</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="4">
+        <v>60.666666666666664</v>
+      </c>
     </row>
     <row r="15" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <f>70/38</f>
+        <v>1.8421052631578947</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1741,10 +2274,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E15"/>
+  <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,6 +2428,15 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f>70/95</f>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1904,10 +2446,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E14"/>
+  <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,6 +2600,15 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f>70/90</f>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2066,10 +2617,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E14"/>
+  <dimension ref="B1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2220,6 +2771,15 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f>70/85</f>
+        <v>0.82352941176470584</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2228,14 +2788,51 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C4:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0.82</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/LaTeX/Experiment/Results/DifferentCatalysts.xlsx
+++ b/LaTeX/Experiment/Results/DifferentCatalysts.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Time(s)</t>
   </si>
@@ -43,16 +43,75 @@
   <si>
     <t>Manganese</t>
   </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <r>
+      <t>Initial Rate of Reaction (mol dm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -68,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -104,16 +163,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -165,7 +259,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> 0.2 Molar Sulfuric Acid and 0.01 Molar Copper Sulfate</a:t>
+              <a:t> 0.4 Molar Sulfuric Acid and 0.01 Molar Copper Sulfate</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -246,7 +340,7 @@
             <c:numRef>
               <c:f>Copper!$C$4:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -296,11 +390,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101480704"/>
-        <c:axId val="101499264"/>
+        <c:axId val="125058432"/>
+        <c:axId val="125371904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101480704"/>
+        <c:axId val="125058432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -331,7 +425,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101499264"/>
+        <c:crossAx val="125371904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -339,7 +433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101499264"/>
+        <c:axId val="125371904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -367,11 +461,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101480704"/>
+        <c:crossAx val="125058432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -557,11 +651,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101894016"/>
-        <c:axId val="101900288"/>
+        <c:axId val="125434880"/>
+        <c:axId val="125437056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101894016"/>
+        <c:axId val="125434880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -592,7 +686,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101900288"/>
+        <c:crossAx val="125437056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -600,7 +694,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101900288"/>
+        <c:axId val="125437056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -632,7 +726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101894016"/>
+        <c:crossAx val="125434880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -817,11 +911,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139048448"/>
-        <c:axId val="139050368"/>
+        <c:axId val="125459072"/>
+        <c:axId val="125461248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139048448"/>
+        <c:axId val="125459072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,7 +946,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139050368"/>
+        <c:crossAx val="125461248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -860,7 +954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139050368"/>
+        <c:axId val="125461248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -892,7 +986,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139048448"/>
+        <c:crossAx val="125459072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -946,7 +1040,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t>0.4 Molar Sulfuric Acid and 0.01 Molar Manganese Sulfate</a:t>
+              <a:t>0.4 Molar Sulfuric Acid and 0.01 Molar Iron Sulfate</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -1077,11 +1171,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139129984"/>
-        <c:axId val="139131904"/>
+        <c:axId val="125548800"/>
+        <c:axId val="125555072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139129984"/>
+        <c:axId val="125548800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,7 +1206,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139131904"/>
+        <c:crossAx val="125555072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1120,7 +1214,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139131904"/>
+        <c:axId val="125555072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1152,7 +1246,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139129984"/>
+        <c:crossAx val="125548800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1286,19 +1380,19 @@
             <c:numRef>
               <c:f>ALL!$D$4:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.84</c:v>
+                  <c:v>1.8420000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74</c:v>
+                  <c:v>0.73699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78</c:v>
+                  <c:v>0.77800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82</c:v>
+                  <c:v>0.82399999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1313,11 +1407,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="58716928"/>
-        <c:axId val="58718464"/>
+        <c:axId val="125581952"/>
+        <c:axId val="125592320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58716928"/>
+        <c:axId val="125581952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1330,10 +1424,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Metal of the Sulfate Salt</a:t>
                 </a:r>
               </a:p>
@@ -1345,7 +1439,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58718464"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="125592320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1353,7 +1457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58718464"/>
+        <c:axId val="125592320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1367,26 +1471,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Rate of Reaction (mol dm</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="30000"/>
+                  <a:rPr lang="en-GB" sz="1400" baseline="30000"/>
                   <a:t>-3</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t> s</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="30000"/>
+                  <a:rPr lang="en-GB" sz="1400" baseline="30000"/>
                   <a:t>-1</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>)</a:t>
                 </a:r>
               </a:p>
@@ -1395,11 +1499,21 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58716928"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="125581952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1421,13 +1535,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>57666</xdr:rowOff>
     </xdr:to>
@@ -1457,12 +1571,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.07083</cdr:x>
-      <cdr:y>0.16344</cdr:y>
+      <cdr:x>0.08021</cdr:x>
+      <cdr:y>0.16211</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.41705</cdr:x>
-      <cdr:y>0.88132</cdr:y>
+      <cdr:x>0.42643</cdr:x>
+      <cdr:y>0.87999</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -1471,8 +1585,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="593725" y="809625"/>
-          <a:ext cx="2901950" cy="3556004"/>
+          <a:off x="673827" y="803356"/>
+          <a:ext cx="2908384" cy="3557445"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -2149,8 +2263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,7 +2286,7 @@
       <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2180,7 +2294,7 @@
       <c r="B5" s="3">
         <v>10</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>16</v>
       </c>
     </row>
@@ -2188,7 +2302,7 @@
       <c r="B6" s="3">
         <v>20</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>23.666666666666668</v>
       </c>
     </row>
@@ -2196,7 +2310,7 @@
       <c r="B7" s="3">
         <v>30</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>29.666666666666668</v>
       </c>
     </row>
@@ -2204,7 +2318,7 @@
       <c r="B8" s="3">
         <v>40</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>35.5</v>
       </c>
     </row>
@@ -2212,7 +2326,7 @@
       <c r="B9" s="3">
         <v>50</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>40.833333333333336</v>
       </c>
     </row>
@@ -2220,7 +2334,7 @@
       <c r="B10" s="3">
         <v>60</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>46</v>
       </c>
     </row>
@@ -2228,7 +2342,7 @@
       <c r="B11" s="3">
         <v>70</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>49.833333333333336</v>
       </c>
     </row>
@@ -2236,7 +2350,7 @@
       <c r="B12" s="3">
         <v>80</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>53.666666666666664</v>
       </c>
     </row>
@@ -2244,7 +2358,7 @@
       <c r="B13" s="3">
         <v>90</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>57.333333333333336</v>
       </c>
     </row>
@@ -2252,7 +2366,7 @@
       <c r="B14" s="3">
         <v>100</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>60.666666666666664</v>
       </c>
     </row>
@@ -2276,8 +2390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2448,7 +2562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -2619,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2788,47 +2902,57 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:D7"/>
+  <dimension ref="C2:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="2" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:4" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>1.84</v>
+      <c r="D4" s="6">
+        <v>1.8420000000000001</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>0.74</v>
+      <c r="D5" s="7">
+        <v>0.73699999999999999</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>0.78</v>
+      <c r="D6" s="7">
+        <v>0.77800000000000002</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7">
-        <v>0.82</v>
+      <c r="D7" s="7">
+        <v>0.82399999999999995</v>
       </c>
     </row>
   </sheetData>
